--- a/Repositorio BarrioKing/Area Proceso REQM/SOLCREQ_1.0_2016.xlsx
+++ b/Repositorio BarrioKing/Area Proceso REQM/SOLCREQ_1.0_2016.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Montana\Desktop\BarrioKing-master\BarrioKing-master\Repositorio BarrioKing\Area Proceso REQM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facilitador\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10530" windowHeight="9195" tabRatio="824" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="824" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="4" r:id="rId1"/>
@@ -26,13 +26,13 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Solicitud de Requerimiento'!$B$1:$D$27</definedName>
-    <definedName name="Contacto">'[5]Diccionario de atributos'!$D$7:$D$12</definedName>
+    <definedName name="Contacto">'[1]Diccionario de atributos'!$D$7:$D$12</definedName>
     <definedName name="Estado">#REF!</definedName>
     <definedName name="Linea">Parametros!$A$1:$A$11</definedName>
-    <definedName name="OpcionSiNo" localSheetId="0">[3]Sheet1!$A$1:$A$2</definedName>
-    <definedName name="OpcionSiNo">[1]Sheet1!$A$1:$A$2</definedName>
+    <definedName name="OpcionSiNo" localSheetId="0">[2]Sheet1!$A$1:$A$2</definedName>
+    <definedName name="OpcionSiNo">[3]Sheet1!$A$1:$A$2</definedName>
     <definedName name="PESO_1" localSheetId="0">[4]CalculoPF!#REF!</definedName>
-    <definedName name="PESO_1">[2]CalculoPF!#REF!</definedName>
+    <definedName name="PESO_1">[5]CalculoPF!#REF!</definedName>
     <definedName name="Situación">#REF!</definedName>
     <definedName name="TARIFA_VIGENTE">#REF!</definedName>
   </definedNames>
@@ -57,6 +57,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>ETT1:
 Para ser evaluado por el equipo de configuración.</t>
@@ -66,6 +67,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -313,9 +315,6 @@
     <t>Manuel Saenz</t>
   </si>
   <si>
-    <t>F-R03 Plantilla de Solicitud de Cambios a Requerimientos de Proyectos Internos</t>
-  </si>
-  <si>
     <t>Elvis Ponce</t>
   </si>
   <si>
@@ -337,15 +336,9 @@
     <t>Jeral Benites</t>
   </si>
   <si>
-    <t>Fecha Efectiva: 18/06/2012</t>
-  </si>
-  <si>
     <t>Solicitud de Requerimientos (SOLCREQ)</t>
   </si>
   <si>
-    <t>001-2016</t>
-  </si>
-  <si>
     <t>SIS-REV</t>
   </si>
   <si>
@@ -356,13 +349,22 @@
   </si>
   <si>
     <t>Se Agrego al Modulo del Cliente</t>
+  </si>
+  <si>
+    <t>Solicitud de Cambios a Requerimientos de Proyectos Internos</t>
+  </si>
+  <si>
+    <t>Fecha Efectiva: 18/06/2016</t>
+  </si>
+  <si>
+    <t>SOLREQ00001-2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -370,10 +372,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -396,6 +400,7 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -428,6 +433,7 @@
       <sz val="10"/>
       <color indexed="18"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -510,10 +516,12 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -527,6 +535,17 @@
       <sz val="24"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="10"/>
+      <name val="Geneva"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Geneva"/>
     </font>
   </fonts>
   <fills count="7">
@@ -567,7 +586,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -766,6 +785,15 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -779,7 +807,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1012,14 +1040,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1044,6 +1064,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1052,31 +1081,28 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1132,13 +1158,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1153,35 +1179,39 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1192,33 +1222,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1232,8 +1242,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1301,15 +1324,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>885826</xdr:colOff>
+      <xdr:colOff>742950</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>40716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1514475</xdr:colOff>
+      <xdr:colOff>1638299</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>600075</xdr:rowOff>
+      <xdr:rowOff>850907</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1329,8 +1352,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1085851" y="209549"/>
-          <a:ext cx="628649" cy="552451"/>
+          <a:off x="942975" y="202641"/>
+          <a:ext cx="895349" cy="810191"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1355,16 +1378,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2581275</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1047749</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1388,8 +1411,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7334250" y="304800"/>
-          <a:ext cx="609600" cy="609600"/>
+          <a:off x="771524" y="0"/>
+          <a:ext cx="1038225" cy="1019175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1428,6 +1451,66 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Instructivo"/>
+      <sheetName val="Identificación"/>
+      <sheetName val="Requerimientos de usuario"/>
+      <sheetName val="Requerimientos del sistema"/>
+      <sheetName val="Requerimientos no funcionales"/>
+      <sheetName val="Observaciones a la LR"/>
+      <sheetName val="Diccionario de atributos"/>
+      <sheetName val="Diccionario de valores"/>
+      <sheetName val="Usuarios"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6">
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>Teresa Montañez</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>José Zegarra</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9" t="str">
+            <v>Flavio Tejada</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10" t="str">
+            <v>Manuel Henostroza</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11" t="str">
+            <v>Bernardino Bravo</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12" t="str">
+            <v>Pedro Leonardo</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="FORMATO--PROCED"/>
       <sheetName val="Sheet1"/>
     </sheetNames>
@@ -1445,31 +1528,6 @@
           </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Inst"/>
-      <sheetName val="INFORMACION DE LA PROPUESTA"/>
-      <sheetName val="CalculoPF"/>
-      <sheetName val="Diferencia Inicial y Juicio Exp"/>
-      <sheetName val="Resumen Inicial"/>
-      <sheetName val="Resumen Juicio Experto"/>
-      <sheetName val="Parametros"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1530,57 +1588,22 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Instructivo"/>
-      <sheetName val="Identificación"/>
-      <sheetName val="Requerimientos de usuario"/>
-      <sheetName val="Requerimientos del sistema"/>
-      <sheetName val="Requerimientos no funcionales"/>
-      <sheetName val="Observaciones a la LR"/>
-      <sheetName val="Diccionario de atributos"/>
-      <sheetName val="Diccionario de valores"/>
-      <sheetName val="Usuarios"/>
+      <sheetName val="Inst"/>
+      <sheetName val="INFORMACION DE LA PROPUESTA"/>
+      <sheetName val="CalculoPF"/>
+      <sheetName val="Diferencia Inicial y Juicio Exp"/>
+      <sheetName val="Resumen Inicial"/>
+      <sheetName val="Resumen Juicio Experto"/>
+      <sheetName val="Parametros"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>Teresa Montañez</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>José Zegarra</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9" t="str">
-            <v>Flavio Tejada</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10" t="str">
-            <v>Manuel Henostroza</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11" t="str">
-            <v>Bernardino Bravo</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12" t="str">
-            <v>Pedro Leonardo</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1903,15 +1926,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="21"/>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
       <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
@@ -1927,63 +1950,63 @@
     </row>
     <row r="4" spans="1:9" ht="36.75" customHeight="1" thickBot="1">
       <c r="A4" s="21"/>
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="144" t="s">
+      <c r="D4" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="144" t="s">
+      <c r="E4" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="144" t="s">
+      <c r="F4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="144" t="s">
+      <c r="G4" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="144" t="s">
+      <c r="H4" s="94" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="21"/>
-      <c r="B5" s="96">
+      <c r="B5" s="97">
         <v>1</v>
       </c>
-      <c r="C5" s="96">
+      <c r="C5" s="97">
         <v>1</v>
       </c>
       <c r="D5" s="99">
         <v>42539</v>
       </c>
-      <c r="E5" s="96" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="96" t="s">
+      <c r="E5" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="98" t="s">
+      <c r="G5" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="97" t="s">
         <v>84</v>
-      </c>
-      <c r="H5" s="96" t="s">
-        <v>85</v>
       </c>
       <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A6" s="21"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
       <c r="I6" s="21"/>
     </row>
   </sheetData>
@@ -2008,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E188"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2022,11 +2045,11 @@
     <col min="6" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="48.75" customHeight="1">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="68.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="22"/>
       <c r="C2" s="120" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D2" s="121"/>
       <c r="E2" s="122"/>
@@ -2037,7 +2060,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="123" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D3" s="124"/>
       <c r="E3" s="125"/>
@@ -2187,31 +2210,31 @@
       <c r="B21" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="103" t="s">
+      <c r="C21" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
     </row>
     <row r="22" spans="1:5" s="38" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
     </row>
     <row r="23" spans="1:5" s="38" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="103" t="s">
+      <c r="C23" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
     </row>
     <row r="24" spans="1:5" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="42"/>
@@ -2250,180 +2273,180 @@
       <c r="D28" s="118"/>
       <c r="E28" s="118"/>
     </row>
-    <row r="29" spans="1:5" s="92" customFormat="1" ht="12">
-      <c r="A29" s="90"/>
-      <c r="B29" s="91" t="s">
+    <row r="29" spans="1:5" s="90" customFormat="1" ht="12">
+      <c r="A29" s="88"/>
+      <c r="B29" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="101" t="s">
+      <c r="C29" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="101" t="s">
+      <c r="D29" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="101"/>
-    </row>
-    <row r="30" spans="1:5" s="92" customFormat="1" ht="12">
-      <c r="A30" s="90"/>
-      <c r="B30" s="91" t="s">
+      <c r="E29" s="105"/>
+    </row>
+    <row r="30" spans="1:5" s="90" customFormat="1" ht="12">
+      <c r="A30" s="88"/>
+      <c r="B30" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="101" t="s">
+      <c r="C30" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="101" t="s">
+      <c r="D30" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="101"/>
-    </row>
-    <row r="31" spans="1:5" s="92" customFormat="1" ht="12">
-      <c r="A31" s="90"/>
-      <c r="B31" s="91" t="s">
+      <c r="E30" s="105"/>
+    </row>
+    <row r="31" spans="1:5" s="90" customFormat="1" ht="12">
+      <c r="A31" s="88"/>
+      <c r="B31" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="101" t="s">
+      <c r="C31" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="101" t="s">
+      <c r="D31" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="101"/>
-    </row>
-    <row r="32" spans="1:5" s="92" customFormat="1" ht="12">
-      <c r="A32" s="90"/>
-      <c r="B32" s="91" t="s">
+      <c r="E31" s="105"/>
+    </row>
+    <row r="32" spans="1:5" s="90" customFormat="1" ht="12">
+      <c r="A32" s="88"/>
+      <c r="B32" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="101" t="s">
+      <c r="C32" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="101" t="s">
+      <c r="D32" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="101"/>
-    </row>
-    <row r="33" spans="1:5" s="92" customFormat="1" ht="12">
-      <c r="A33" s="90"/>
-      <c r="B33" s="91" t="s">
+      <c r="E32" s="105"/>
+    </row>
+    <row r="33" spans="1:5" s="90" customFormat="1" ht="12">
+      <c r="A33" s="88"/>
+      <c r="B33" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="101" t="s">
+      <c r="C33" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="101" t="s">
+      <c r="D33" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="101"/>
-    </row>
-    <row r="34" spans="1:5" s="92" customFormat="1" ht="24">
-      <c r="A34" s="90"/>
-      <c r="B34" s="91" t="s">
+      <c r="E33" s="105"/>
+    </row>
+    <row r="34" spans="1:5" s="90" customFormat="1" ht="24">
+      <c r="A34" s="88"/>
+      <c r="B34" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="101" t="s">
+      <c r="D34" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="101"/>
-    </row>
-    <row r="35" spans="1:5" s="92" customFormat="1" ht="12" customHeight="1">
-      <c r="A35" s="90"/>
-      <c r="B35" s="91" t="s">
+      <c r="E34" s="105"/>
+    </row>
+    <row r="35" spans="1:5" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A35" s="88"/>
+      <c r="B35" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="101" t="s">
+      <c r="C35" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-    </row>
-    <row r="36" spans="1:5" s="92" customFormat="1" ht="12" customHeight="1">
-      <c r="A36" s="90"/>
-      <c r="B36" s="91" t="s">
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+    </row>
+    <row r="36" spans="1:5" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="A36" s="88"/>
+      <c r="B36" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="101" t="s">
+      <c r="C36" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-    </row>
-    <row r="37" spans="1:5" s="93" customFormat="1" ht="12">
-      <c r="B37" s="91" t="s">
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+    </row>
+    <row r="37" spans="1:5" s="91" customFormat="1" ht="12">
+      <c r="B37" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="101" t="s">
+      <c r="C37" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="101" t="s">
+      <c r="D37" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="101"/>
-    </row>
-    <row r="38" spans="1:5" s="93" customFormat="1" ht="12">
-      <c r="B38" s="91" t="s">
+      <c r="E37" s="105"/>
+    </row>
+    <row r="38" spans="1:5" s="91" customFormat="1" ht="12">
+      <c r="B38" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="101" t="s">
+      <c r="C38" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="101" t="s">
+      <c r="D38" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="101"/>
-    </row>
-    <row r="39" spans="1:5" s="92" customFormat="1" ht="12">
-      <c r="A39" s="90"/>
-      <c r="B39" s="91" t="s">
+      <c r="E38" s="105"/>
+    </row>
+    <row r="39" spans="1:5" s="90" customFormat="1" ht="12">
+      <c r="A39" s="88"/>
+      <c r="B39" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="101" t="s">
+      <c r="C39" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="101" t="s">
+      <c r="D39" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="101"/>
-    </row>
-    <row r="40" spans="1:5" s="93" customFormat="1" ht="27" customHeight="1">
-      <c r="B40" s="91" t="s">
+      <c r="E39" s="105"/>
+    </row>
+    <row r="40" spans="1:5" s="91" customFormat="1" ht="27" customHeight="1">
+      <c r="B40" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="101" t="s">
+      <c r="C40" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="101" t="s">
+      <c r="D40" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="101"/>
-    </row>
-    <row r="41" spans="1:5" s="92" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A41" s="90"/>
-      <c r="B41" s="91" t="s">
+      <c r="E40" s="105"/>
+    </row>
+    <row r="41" spans="1:5" s="90" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A41" s="88"/>
+      <c r="B41" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="101" t="s">
+      <c r="C41" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="101" t="s">
+      <c r="D41" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="101"/>
-    </row>
-    <row r="42" spans="1:5" s="89" customFormat="1" ht="12">
-      <c r="A42" s="87"/>
-      <c r="B42" s="88" t="s">
+      <c r="E41" s="105"/>
+    </row>
+    <row r="42" spans="1:5" s="87" customFormat="1" ht="12">
+      <c r="A42" s="85"/>
+      <c r="B42" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="101" t="s">
+      <c r="C42" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="101" t="s">
+      <c r="D42" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="101"/>
+      <c r="E42" s="105"/>
     </row>
     <row r="43" spans="1:5" ht="14.25" customHeight="1">
       <c r="A43" s="2"/>
@@ -3079,9 +3102,9 @@
     <row r="136" spans="1:5">
       <c r="A136" s="36"/>
       <c r="B136" s="79"/>
-      <c r="C136" s="104"/>
-      <c r="D136" s="104"/>
-      <c r="E136" s="104"/>
+      <c r="C136" s="103"/>
+      <c r="D136" s="103"/>
+      <c r="E136" s="103"/>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="36"/>
@@ -3094,8 +3117,8 @@
       <c r="A138" s="36"/>
       <c r="B138" s="81"/>
       <c r="C138" s="107"/>
-      <c r="D138" s="104"/>
-      <c r="E138" s="104"/>
+      <c r="D138" s="103"/>
+      <c r="E138" s="103"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="36"/>
@@ -3107,9 +3130,9 @@
     <row r="140" spans="1:5">
       <c r="A140" s="36"/>
       <c r="B140" s="79"/>
-      <c r="C140" s="104"/>
-      <c r="D140" s="104"/>
-      <c r="E140" s="104"/>
+      <c r="C140" s="103"/>
+      <c r="D140" s="103"/>
+      <c r="E140" s="103"/>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="36"/>
@@ -3122,8 +3145,8 @@
       <c r="A142" s="36"/>
       <c r="B142" s="81"/>
       <c r="C142" s="107"/>
-      <c r="D142" s="104"/>
-      <c r="E142" s="104"/>
+      <c r="D142" s="103"/>
+      <c r="E142" s="103"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="36"/>
@@ -3142,9 +3165,9 @@
     <row r="145" spans="1:5">
       <c r="A145" s="36"/>
       <c r="B145" s="79"/>
-      <c r="C145" s="104"/>
-      <c r="D145" s="104"/>
-      <c r="E145" s="104"/>
+      <c r="C145" s="103"/>
+      <c r="D145" s="103"/>
+      <c r="E145" s="103"/>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="36"/>
@@ -3157,15 +3180,15 @@
       <c r="A147" s="36"/>
       <c r="B147" s="81"/>
       <c r="C147" s="107"/>
-      <c r="D147" s="104"/>
-      <c r="E147" s="104"/>
+      <c r="D147" s="103"/>
+      <c r="E147" s="103"/>
     </row>
     <row r="148" spans="1:5" ht="90" customHeight="1">
       <c r="A148" s="36"/>
       <c r="B148" s="81"/>
       <c r="C148" s="107"/>
-      <c r="D148" s="104"/>
-      <c r="E148" s="104"/>
+      <c r="D148" s="103"/>
+      <c r="E148" s="103"/>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="36"/>
@@ -3177,71 +3200,71 @@
     <row r="150" spans="1:5">
       <c r="A150" s="36"/>
       <c r="B150" s="83"/>
-      <c r="C150" s="105"/>
-      <c r="D150" s="105"/>
+      <c r="C150" s="104"/>
+      <c r="D150" s="104"/>
       <c r="E150" s="71"/>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="36"/>
       <c r="B151" s="83"/>
-      <c r="C151" s="105"/>
-      <c r="D151" s="105"/>
+      <c r="C151" s="104"/>
+      <c r="D151" s="104"/>
       <c r="E151" s="71"/>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="36"/>
       <c r="B152" s="83"/>
-      <c r="C152" s="105"/>
-      <c r="D152" s="105"/>
+      <c r="C152" s="104"/>
+      <c r="D152" s="104"/>
       <c r="E152" s="71"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="36"/>
       <c r="B153" s="83"/>
-      <c r="C153" s="105"/>
-      <c r="D153" s="105"/>
+      <c r="C153" s="104"/>
+      <c r="D153" s="104"/>
       <c r="E153" s="71"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="36"/>
       <c r="B154" s="83"/>
-      <c r="C154" s="105"/>
-      <c r="D154" s="105"/>
+      <c r="C154" s="104"/>
+      <c r="D154" s="104"/>
       <c r="E154" s="71"/>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="36"/>
       <c r="B155" s="83"/>
-      <c r="C155" s="105"/>
-      <c r="D155" s="105"/>
+      <c r="C155" s="104"/>
+      <c r="D155" s="104"/>
       <c r="E155" s="71"/>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="36"/>
       <c r="B156" s="83"/>
-      <c r="C156" s="105"/>
-      <c r="D156" s="105"/>
+      <c r="C156" s="104"/>
+      <c r="D156" s="104"/>
       <c r="E156" s="84"/>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="36"/>
       <c r="B157" s="83"/>
-      <c r="C157" s="105"/>
-      <c r="D157" s="105"/>
+      <c r="C157" s="104"/>
+      <c r="D157" s="104"/>
       <c r="E157" s="84"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="36"/>
       <c r="B158" s="83"/>
-      <c r="C158" s="105"/>
-      <c r="D158" s="105"/>
+      <c r="C158" s="104"/>
+      <c r="D158" s="104"/>
       <c r="E158" s="84"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="36"/>
       <c r="B159" s="83"/>
-      <c r="C159" s="105"/>
-      <c r="D159" s="105"/>
+      <c r="C159" s="104"/>
+      <c r="D159" s="104"/>
       <c r="E159" s="84"/>
     </row>
     <row r="160" spans="1:5" ht="26.25" customHeight="1">
@@ -3295,85 +3318,85 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="36"/>
-      <c r="B167" s="105"/>
-      <c r="C167" s="105"/>
+      <c r="B167" s="104"/>
+      <c r="C167" s="104"/>
       <c r="D167" s="36"/>
       <c r="E167" s="36"/>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="36"/>
-      <c r="B168" s="105"/>
-      <c r="C168" s="105"/>
+      <c r="B168" s="104"/>
+      <c r="C168" s="104"/>
       <c r="D168" s="36"/>
       <c r="E168" s="36"/>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="36"/>
-      <c r="B169" s="105"/>
-      <c r="C169" s="105"/>
+      <c r="B169" s="104"/>
+      <c r="C169" s="104"/>
       <c r="D169" s="36"/>
       <c r="E169" s="36"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="36"/>
-      <c r="B170" s="105"/>
-      <c r="C170" s="105"/>
+      <c r="B170" s="104"/>
+      <c r="C170" s="104"/>
       <c r="D170" s="36"/>
       <c r="E170" s="36"/>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="36"/>
-      <c r="B171" s="105"/>
-      <c r="C171" s="105"/>
+      <c r="B171" s="104"/>
+      <c r="C171" s="104"/>
       <c r="D171" s="36"/>
       <c r="E171" s="36"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="36"/>
-      <c r="B172" s="105"/>
-      <c r="C172" s="105"/>
+      <c r="B172" s="104"/>
+      <c r="C172" s="104"/>
       <c r="D172" s="36"/>
       <c r="E172" s="36"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="36"/>
-      <c r="B173" s="105"/>
-      <c r="C173" s="105"/>
+      <c r="B173" s="104"/>
+      <c r="C173" s="104"/>
       <c r="D173" s="36"/>
       <c r="E173" s="36"/>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="36"/>
-      <c r="B174" s="105"/>
-      <c r="C174" s="105"/>
+      <c r="B174" s="104"/>
+      <c r="C174" s="104"/>
       <c r="D174" s="36"/>
       <c r="E174" s="36"/>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="36"/>
-      <c r="B175" s="105"/>
-      <c r="C175" s="105"/>
+      <c r="B175" s="104"/>
+      <c r="C175" s="104"/>
       <c r="D175" s="36"/>
       <c r="E175" s="36"/>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="36"/>
-      <c r="B176" s="105"/>
-      <c r="C176" s="105"/>
+      <c r="B176" s="104"/>
+      <c r="C176" s="104"/>
       <c r="D176" s="36"/>
       <c r="E176" s="36"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="36"/>
-      <c r="B177" s="105"/>
-      <c r="C177" s="105"/>
+      <c r="B177" s="104"/>
+      <c r="C177" s="104"/>
       <c r="D177" s="36"/>
       <c r="E177" s="36"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="36"/>
-      <c r="B178" s="105"/>
-      <c r="C178" s="105"/>
+      <c r="B178" s="104"/>
+      <c r="C178" s="104"/>
       <c r="D178" s="36"/>
       <c r="E178" s="36"/>
     </row>
@@ -3386,17 +3409,17 @@
     </row>
     <row r="180" spans="1:5" ht="15" customHeight="1">
       <c r="A180" s="81"/>
-      <c r="B180" s="104"/>
-      <c r="C180" s="104"/>
-      <c r="D180" s="104"/>
-      <c r="E180" s="104"/>
+      <c r="B180" s="103"/>
+      <c r="C180" s="103"/>
+      <c r="D180" s="103"/>
+      <c r="E180" s="103"/>
     </row>
     <row r="181" spans="1:5" ht="32.25" customHeight="1">
       <c r="A181" s="81"/>
-      <c r="B181" s="104"/>
-      <c r="C181" s="104"/>
-      <c r="D181" s="104"/>
-      <c r="E181" s="104"/>
+      <c r="B181" s="103"/>
+      <c r="C181" s="103"/>
+      <c r="D181" s="103"/>
+      <c r="E181" s="103"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="36"/>
@@ -3421,31 +3444,31 @@
     </row>
     <row r="185" spans="1:5" ht="32.25" customHeight="1">
       <c r="A185" s="81"/>
-      <c r="B185" s="102"/>
-      <c r="C185" s="102"/>
-      <c r="D185" s="102"/>
-      <c r="E185" s="102"/>
+      <c r="B185" s="101"/>
+      <c r="C185" s="101"/>
+      <c r="D185" s="101"/>
+      <c r="E185" s="101"/>
     </row>
     <row r="186" spans="1:5" ht="17.25" customHeight="1">
       <c r="A186" s="81"/>
-      <c r="B186" s="102"/>
-      <c r="C186" s="102"/>
-      <c r="D186" s="102"/>
-      <c r="E186" s="102"/>
+      <c r="B186" s="101"/>
+      <c r="C186" s="101"/>
+      <c r="D186" s="101"/>
+      <c r="E186" s="101"/>
     </row>
     <row r="187" spans="1:5" ht="18" customHeight="1">
       <c r="A187" s="81"/>
-      <c r="B187" s="102"/>
-      <c r="C187" s="102"/>
-      <c r="D187" s="102"/>
-      <c r="E187" s="102"/>
+      <c r="B187" s="101"/>
+      <c r="C187" s="101"/>
+      <c r="D187" s="101"/>
+      <c r="E187" s="101"/>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="81"/>
-      <c r="B188" s="102"/>
-      <c r="C188" s="102"/>
-      <c r="D188" s="102"/>
-      <c r="E188" s="102"/>
+      <c r="B188" s="101"/>
+      <c r="C188" s="101"/>
+      <c r="D188" s="101"/>
+      <c r="E188" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="79">
@@ -3457,18 +3480,16 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C35:E35"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="C29:E29"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="B45:E45"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C32:E32"/>
@@ -3476,30 +3497,32 @@
     <mergeCell ref="C40:E40"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="C37:E37"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="C136:E136"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="C148:E148"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="C150:D150"/>
     <mergeCell ref="C138:E138"/>
     <mergeCell ref="C140:E140"/>
     <mergeCell ref="C142:E142"/>
     <mergeCell ref="C145:E145"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="B134:E134"/>
-    <mergeCell ref="C136:E136"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C147:E147"/>
-    <mergeCell ref="C148:E148"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
     <mergeCell ref="C159:D159"/>
     <mergeCell ref="C160:E160"/>
     <mergeCell ref="B167:C167"/>
@@ -3508,18 +3531,10 @@
     <mergeCell ref="C156:D156"/>
     <mergeCell ref="C157:D157"/>
     <mergeCell ref="C158:D158"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B180:E180"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C154:D154"/>
     <mergeCell ref="B188:E188"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="B181:E181"/>
@@ -3528,6 +3543,14 @@
     <mergeCell ref="B187:E187"/>
     <mergeCell ref="B176:C176"/>
     <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B180:E180"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="B169:C169"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B73:B74">
@@ -3554,8 +3577,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B1:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3567,186 +3590,188 @@
     <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="60" customHeight="1" thickBot="1">
-      <c r="B1" s="145" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147"/>
+    <row r="1" spans="2:4" ht="79.5" customHeight="1" thickBot="1">
+      <c r="B1" s="147" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
     </row>
     <row r="2" spans="2:4" ht="24" customHeight="1">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="146" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" ht="24" customHeight="1">
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+    </row>
+    <row r="3" spans="2:4" ht="5.25" customHeight="1">
       <c r="B3" s="9"/>
     </row>
     <row r="4" spans="2:4" ht="15">
       <c r="B4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="134" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="135"/>
+      <c r="C4" s="150" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="141"/>
     </row>
     <row r="5" spans="2:4" ht="16.5" customHeight="1">
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="131"/>
+      <c r="D5" s="135"/>
     </row>
     <row r="6" spans="2:4" ht="16.5" customHeight="1">
       <c r="B6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="86"/>
+      <c r="D6" s="135"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="130" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="131"/>
+      <c r="C7" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="135"/>
     </row>
     <row r="8" spans="2:4" ht="25.5">
       <c r="B8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="137">
+      <c r="C8" s="142">
         <v>42539</v>
       </c>
-      <c r="D8" s="131"/>
+      <c r="D8" s="135"/>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="130" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="131"/>
+      <c r="C9" s="134" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="135"/>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="130" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="131"/>
+      <c r="C10" s="134" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="135"/>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="138" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="139"/>
+      <c r="C11" s="137" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="138"/>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="140"/>
     </row>
     <row r="13" spans="2:4" ht="11.25" customHeight="1"/>
     <row r="14" spans="2:4">
-      <c r="B14" s="136" t="s">
+      <c r="B14" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
     </row>
     <row r="15" spans="2:4" ht="37.5" customHeight="1">
-      <c r="B15" s="140" t="s">
+      <c r="B15" s="131" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="132"/>
+      <c r="D15" s="133"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+    </row>
+    <row r="17" spans="2:4" ht="38.25" customHeight="1">
+      <c r="B17" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="141"/>
-      <c r="D15" s="142"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="136" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-    </row>
-    <row r="17" spans="2:4" ht="38.25" customHeight="1">
-      <c r="B17" s="140" t="s">
+      <c r="C17" s="132"/>
+      <c r="D17" s="133"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="130" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+    </row>
+    <row r="19" spans="2:4" ht="25.5" customHeight="1">
+      <c r="B19" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="141"/>
-      <c r="D17" s="142"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="136" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-    </row>
-    <row r="19" spans="2:4" ht="25.5" customHeight="1">
-      <c r="B19" s="132" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="133"/>
-      <c r="D19" s="95"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="93"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="136" t="s">
+      <c r="B20" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="130"/>
     </row>
     <row r="21" spans="2:4" ht="25.5" customHeight="1">
-      <c r="B21" s="132" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="143"/>
+      <c r="B21" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="136"/>
+      <c r="D21" s="135"/>
     </row>
     <row r="22" spans="2:4" ht="18" customHeight="1">
-      <c r="B22" s="136" t="s">
+      <c r="B22" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
     </row>
     <row r="23" spans="2:4" ht="31.5" customHeight="1">
-      <c r="B23" s="148" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="149"/>
-      <c r="D23" s="150"/>
+      <c r="B23" s="143" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="144"/>
+      <c r="D23" s="145"/>
     </row>
     <row r="24" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B24" s="136" t="s">
+      <c r="B24" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="136"/>
-      <c r="D24" s="136"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
     </row>
     <row r="25" spans="2:4" ht="70.5" customHeight="1">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="133" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="143"/>
+      <c r="C25" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="135"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="5"/>
@@ -3762,7 +3787,7 @@
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="21">
+  <mergeCells count="23">
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B22:D22"/>
@@ -3770,20 +3795,22 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -3804,7 +3831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -3820,18 +3847,18 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="151" t="s">
-        <v>85</v>
+      <c r="A2" s="95" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1">
